--- a/config/CANBusData(saved201022)Modified.xlsx
+++ b/config/CANBusData(saved201022)Modified.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoo\Documents\DUEM22GIT\CANTranslator\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F80E67-5BFF-4172-AF32-6E258D8FC125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C354422-5032-4E7F-AD44-6398E49788EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{26B1AE09-9001-5E40-B3F1-E0A864A81904}"/>
   </bookViews>
   <sheets>
     <sheet name="CAN Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Data Types" sheetId="3" r:id="rId2"/>
-    <sheet name="Info" sheetId="4" r:id="rId3"/>
+    <sheet name="DataTypes" sheetId="5" r:id="rId2"/>
+    <sheet name="Data Types" sheetId="3" r:id="rId3"/>
+    <sheet name="Info" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CAN Data'!$A$1:$S$42</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="272">
   <si>
     <t>CAN_ID</t>
   </si>
@@ -285,9 +286,6 @@
   </si>
   <si>
     <t>2.5 &amp; 1.2 Volt. Rail</t>
-  </si>
-  <si>
-    <t>Fan Speed Measrement</t>
   </si>
   <si>
     <t>Sink &amp; Motor Temperature</t>
@@ -789,9 +787,6 @@
     <t>ok = 0xFF, not ok = 0x0A</t>
   </si>
   <si>
-    <t>Pink cells are my edits</t>
-  </si>
-  <si>
     <t>zero</t>
   </si>
   <si>
@@ -955,6 +950,39 @@
   </si>
   <si>
     <t>spare3</t>
+  </si>
+  <si>
+    <t>Fan Speed Measurement</t>
+  </si>
+  <si>
+    <t>struct unpack code</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>uint8</t>
+  </si>
+  <si>
+    <t>c type</t>
+  </si>
+  <si>
+    <t>struct unpack</t>
+  </si>
+  <si>
+    <t>size (bytes)</t>
+  </si>
+  <si>
+    <t>uint16</t>
+  </si>
+  <si>
+    <t>byte indices</t>
+  </si>
+  <si>
+    <t>c struct</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1066,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1050,8 +1078,14 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1059,12 +1093,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1095,6 +1144,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1679,9 +1729,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7006E8D-471C-FD46-A1D1-22F26DACF42F}">
   <dimension ref="A1:AJ45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R8" sqref="R8"/>
+      <selection pane="bottomLeft" activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1705,10 +1755,11 @@
     <col min="18" max="18" width="37.5" style="2" customWidth="1"/>
     <col min="19" max="19" width="24.5" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="19.125" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="10.75" style="2"/>
+    <col min="21" max="21" width="13.875" style="2" customWidth="1"/>
+    <col min="22" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
@@ -1725,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -1761,15 +1812,24 @@
         <v>52</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>49</v>
@@ -1788,28 +1848,28 @@
         <v>8</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="P2" s="3">
         <f>IF(ISBLANK(D2),"",1/D2)</f>
@@ -1820,15 +1880,18 @@
         <v>4</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>49</v>
@@ -1837,7 +1900,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" si="0"/>
@@ -1847,7 +1910,7 @@
         <v>8</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>33</v>
@@ -1859,7 +1922,7 @@
         <v>33</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>33</v>
@@ -1879,21 +1942,18 @@
         <v>4</v>
       </c>
       <c r="R3" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>49</v>
@@ -1902,7 +1962,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
@@ -1912,19 +1972,19 @@
         <v>5</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>43</v>
@@ -1944,18 +2004,18 @@
         <v>2.5</v>
       </c>
       <c r="R4" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>49</v>
@@ -1964,7 +2024,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
@@ -1974,19 +2034,19 @@
         <v>5</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>243</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>43</v>
@@ -2006,18 +2066,18 @@
         <v>2.5</v>
       </c>
       <c r="R5" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="S5" s="12" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>49</v>
@@ -2026,7 +2086,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
@@ -2036,7 +2096,7 @@
         <v>5</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>33</v>
@@ -2048,7 +2108,7 @@
         <v>33</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>43</v>
@@ -2068,15 +2128,18 @@
         <v>2.5</v>
       </c>
       <c r="R6" s="14" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>49</v>
@@ -2085,7 +2148,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" ref="F7:F29" si="3">HEX2DEC(RIGHT(E7,LEN(E7)-2))</f>
@@ -2095,28 +2158,28 @@
         <v>8</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>205</v>
-      </c>
       <c r="M7" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>262</v>
       </c>
       <c r="P7" s="3">
         <f t="shared" si="1"/>
@@ -2127,21 +2190,24 @@
         <v>4</v>
       </c>
       <c r="R7" s="15" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="3"/>
@@ -2151,19 +2217,19 @@
         <v>8</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>33</v>
@@ -2183,21 +2249,24 @@
         <v/>
       </c>
       <c r="R8" s="7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="3"/>
@@ -2207,7 +2276,7 @@
         <v>8</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>33</v>
@@ -2219,7 +2288,7 @@
         <v>33</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>33</v>
@@ -2239,10 +2308,13 @@
         <v/>
       </c>
       <c r="R9" s="7" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>48</v>
       </c>
@@ -2266,19 +2338,19 @@
         <v>8</v>
       </c>
       <c r="H10" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>33</v>
@@ -2298,10 +2370,13 @@
         <v>80</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>50</v>
       </c>
@@ -2325,7 +2400,7 @@
         <v>8</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>43</v>
@@ -2337,7 +2412,7 @@
         <v>43</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>33</v>
@@ -2357,10 +2432,13 @@
         <v>16</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>50</v>
       </c>
@@ -2384,7 +2462,7 @@
         <v>8</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>33</v>
@@ -2396,7 +2474,7 @@
         <v>33</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>33</v>
@@ -2416,10 +2494,13 @@
         <v>8</v>
       </c>
       <c r="R12" s="8" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>48</v>
       </c>
@@ -2443,28 +2524,28 @@
         <v>8</v>
       </c>
       <c r="H13" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="M13" s="2" t="s">
         <v>33</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P13" s="3">
         <f t="shared" si="4"/>
@@ -2475,15 +2556,18 @@
         <v>40</v>
       </c>
       <c r="R13" s="8" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>17</v>
@@ -2502,19 +2586,19 @@
         <v>8</v>
       </c>
       <c r="H14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>33</v>
@@ -2534,10 +2618,13 @@
         <v>40</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>48</v>
       </c>
@@ -2561,19 +2648,19 @@
         <v>8</v>
       </c>
       <c r="H15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>33</v>
@@ -2593,10 +2680,13 @@
         <v>40</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>48</v>
       </c>
@@ -2620,19 +2710,19 @@
         <v>8</v>
       </c>
       <c r="H16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>33</v>
@@ -2652,10 +2742,13 @@
         <v>40</v>
       </c>
       <c r="R16" s="7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>48</v>
       </c>
@@ -2679,19 +2772,19 @@
         <v>8</v>
       </c>
       <c r="H17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>33</v>
@@ -2711,10 +2804,13 @@
         <v>40</v>
       </c>
       <c r="R17" s="7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>48</v>
       </c>
@@ -2738,19 +2834,19 @@
         <v>8</v>
       </c>
       <c r="H18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>33</v>
@@ -2770,10 +2866,13 @@
         <v>40</v>
       </c>
       <c r="R18" s="7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>48</v>
       </c>
@@ -2797,19 +2896,19 @@
         <v>8</v>
       </c>
       <c r="H19" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>33</v>
@@ -2829,10 +2928,13 @@
         <v>40</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>50</v>
       </c>
@@ -2856,19 +2958,19 @@
         <v>8</v>
       </c>
       <c r="H20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>33</v>
@@ -2888,10 +2990,13 @@
         <v>8</v>
       </c>
       <c r="R20" s="7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>47</v>
       </c>
@@ -2915,19 +3020,19 @@
         <v>8</v>
       </c>
       <c r="H21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>33</v>
@@ -2947,15 +3052,18 @@
         <v>8</v>
       </c>
       <c r="R21" s="7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>82</v>
+        <v>261</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>17</v>
@@ -2974,19 +3082,19 @@
         <v>8</v>
       </c>
       <c r="H22" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>33</v>
@@ -3006,15 +3114,18 @@
         <v>8</v>
       </c>
       <c r="R22" s="7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>17</v>
@@ -3033,19 +3144,19 @@
         <v>8</v>
       </c>
       <c r="H23" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L23" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>33</v>
@@ -3065,15 +3176,18 @@
         <v>8</v>
       </c>
       <c r="R23" s="7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>17</v>
@@ -3092,19 +3206,19 @@
         <v>8</v>
       </c>
       <c r="H24" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L24" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>33</v>
@@ -3124,18 +3238,18 @@
         <v>1.6</v>
       </c>
       <c r="R24" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="S24" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>17</v>
@@ -3154,19 +3268,19 @@
         <v>8</v>
       </c>
       <c r="H25" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L25" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>33</v>
@@ -3186,15 +3300,18 @@
         <v>1.6</v>
       </c>
       <c r="R25" s="7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>17</v>
@@ -3213,19 +3330,19 @@
         <v>8</v>
       </c>
       <c r="H26" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L26" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>33</v>
@@ -3245,10 +3362,13 @@
         <v>8</v>
       </c>
       <c r="R26" s="7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>48</v>
       </c>
@@ -3304,10 +3424,13 @@
         <v>57.692307692307693</v>
       </c>
       <c r="R27" s="8" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>48</v>
       </c>
@@ -3363,15 +3486,18 @@
         <v>57.692307692307693</v>
       </c>
       <c r="R28" s="15" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>13</v>
@@ -3402,7 +3528,7 @@
         <v>33</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M29" s="2" t="s">
         <v>33</v>
@@ -3422,34 +3548,40 @@
         <v>76.92307692307692</v>
       </c>
       <c r="R29" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F32" s="1">
         <f>HEX2DEC(RIGHT(E32,LEN(E32)-2))</f>
@@ -3488,7 +3620,7 @@
       </c>
       <c r="Q32" s="3"/>
       <c r="R32" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.25">
@@ -3496,13 +3628,13 @@
         <v>50</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F33" s="1">
         <f>HEX2DEC(RIGHT(E33,LEN(E33)-2))</f>
@@ -3544,7 +3676,7 @@
         <v/>
       </c>
       <c r="R33" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.25">
@@ -3552,13 +3684,13 @@
         <v>50</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F34" s="1">
         <f>HEX2DEC(RIGHT(E34,LEN(E34)-2))</f>
@@ -3576,7 +3708,7 @@
         <v/>
       </c>
       <c r="R34" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
@@ -3584,13 +3716,13 @@
         <v>50</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F35" s="1">
         <f>HEX2DEC(RIGHT(E35,LEN(E35)-2))</f>
@@ -3625,48 +3757,60 @@
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="E42" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>55</v>
@@ -3674,7 +3818,7 @@
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>17</v>
@@ -3685,7 +3829,7 @@
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>17</v>
@@ -3898,11 +4042,99 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F23D8AEA-C51B-4B94-A871-1AD9CD0C68DB}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.25" customWidth="1"/>
+    <col min="4" max="4" width="10.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90480EED-17CF-1143-8B6A-E219B6120FC2}">
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -3916,90 +4148,90 @@
         <v>11</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>119</v>
-      </c>
       <c r="E1" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -4010,273 +4242,273 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" t="s">
         <v>154</v>
       </c>
-      <c r="B9" t="s">
-        <v>155</v>
-      </c>
       <c r="C9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D9">
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D11">
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D15">
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D16">
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D17">
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -4284,13 +4516,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D20">
         <v>4</v>
@@ -4298,13 +4530,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>163</v>
+      </c>
+      <c r="B21" t="s">
         <v>164</v>
       </c>
-      <c r="B21" t="s">
-        <v>165</v>
-      </c>
       <c r="C21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -4312,13 +4544,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -4326,13 +4558,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" t="s">
         <v>168</v>
-      </c>
-      <c r="C23" t="s">
-        <v>169</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -4340,13 +4572,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D24">
         <v>4</v>
@@ -4354,13 +4586,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D25">
         <v>4</v>
@@ -4368,13 +4600,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D26">
         <v>4</v>
@@ -4382,13 +4614,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D27">
         <v>4</v>
@@ -4396,13 +4628,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D28">
         <v>4</v>
@@ -4410,13 +4642,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D29">
         <v>4</v>
@@ -4424,13 +4656,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D30">
         <v>4</v>
@@ -4438,13 +4670,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D31">
         <v>4</v>
@@ -4452,13 +4684,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D32">
         <v>4</v>
@@ -4466,13 +4698,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D33">
         <v>4</v>
@@ -4480,13 +4712,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D34">
         <v>4</v>
@@ -4494,13 +4726,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D35">
         <v>4</v>
@@ -4508,13 +4740,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D36">
         <v>4</v>
@@ -4522,13 +4754,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D37">
         <v>4</v>
@@ -4536,13 +4768,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D38">
         <v>4</v>
@@ -4550,13 +4782,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D39">
         <v>4</v>
@@ -4564,13 +4796,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D40">
         <v>4</v>
@@ -4578,13 +4810,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D41">
         <v>4</v>
@@ -4592,13 +4824,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D42">
         <v>4</v>
@@ -4606,13 +4838,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C43" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D43">
         <v>4</v>
@@ -4620,13 +4852,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C44" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D44">
         <v>4</v>
@@ -4634,13 +4866,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D45">
         <v>4</v>
@@ -4648,13 +4880,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C46" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D46">
         <v>4</v>
@@ -4662,13 +4894,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C47" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D47">
         <v>4</v>
@@ -4676,13 +4908,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C48" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D48">
         <v>4</v>
@@ -4690,13 +4922,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C49" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D49">
         <v>4</v>
@@ -4724,7 +4956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9315FF2A-AC6E-E645-8B2A-97CDC5AB8507}">
   <dimension ref="B2:C21"/>
   <sheetViews>
@@ -4736,103 +4968,103 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C6" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C10" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
       <c r="C11" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
       <c r="C12" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
       <c r="C13" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
       <c r="C14" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
       <c r="C15" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
       <c r="C17" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
       <c r="C18" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
       <c r="C19" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
       <c r="C20" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
       <c r="C21" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
